--- a/experiment_results/7812P106.xlsx
+++ b/experiment_results/7812P106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1287"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Cooking Classes', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cooking Classes']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cooking Classes', 'Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cooking Classes']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P1</t>
+          <t>PRODUCTCODE: 53526P2</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Austin's favorite "bucket list tour" offers an excellent city overview in just 2 hours. Visit major landmarks, lesser-known gems that only a local would know about, real neighborhoods, and even a sweet treat.</t>
+          <t>Summarized description: Discover the hidden gems of Austin, TX during your morning walk. Our nationally acclaimed storyteller will be your guide as you see iconic sights and hear the history of downtown Austin.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Best of Austin Small-Group Driving Tour with Local Guide</t>
+          <t>Title: Austin Small Group Morning Walk</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 1951</t>
+          <t>TotalReviews: 359</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5718CITY</t>
+          <t>PRODUCTCODE: 19328P5</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: This signature Austin tour covers 30 miles, 50+ points of interest, in 90 minutes (1.5 hours) Non-STOP. You'll get to see iconic places such as the Texas Capitol.</t>
+          <t>Summarized description: Join Twisted Texas for visits to three Austin eateries for local specialties. All food is included and adds up to one very big brunch. Each stop is accompanied by a brunch adult beverage — on us!</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Austin and Hill Country Sightseeing Tour</t>
+          <t>Title: The Brunch Bus: Food Tour with a Live Band on Board the Bus!</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 814</t>
+          <t>TotalReviews: 141</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P6</t>
+          <t>PRODUCTCODE: 441526P2</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: The shuttle departs from the Austin Visitor Center at 10:30AM and heads out to the Driftwood area of the Texas Hill Country. Enjoy comfortable transportation in a Mercedes Sprinter van with a friendly local guide. Food/drinks not included in the shuttle price; guests pay directly at the restaurant and wineries.</t>
+          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: From Austin: Hill Country BBQ &amp; Wine Shuttle</t>
+          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 706</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P1</t>
+          <t>PRODUCTCODE: 19328P8</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: A 90-minute walking tour with historical tales of murder, mystery and of course, ghosts. In addition, you will explore the little known nooks and crannies of Austin.</t>
+          <t>Summarized description: This brunch experience is perfect for locals (tours aren't just for tourists!), adult birthdays, bach parties, and anyone looking to mix up their weekend routine. Hear entertaining stories of local businesses, weird characters, and humorous history.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Haunted Austin Walking History Tour</t>
+          <t>Title: Small-Group Boozy Brunch Tour in Austin</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 698</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P5</t>
+          <t>PRODUCTCODE: 53526P5</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: With over 270 live music venues, Austin is known as the Live Music Capital of the World. All performances and venues are authentically Austin, but will vary in genre, size, style and neighborhood.</t>
+          <t>Summarized description: This three-hour tour visits four of Austin’s awesome pubs. Drinks are not included in your ticket purchase. Each stop has various specials exclusive to the Pub Walk Austin tour.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Austin Live Music Crawl</t>
+          <t>Title: Small Group Pub Walk Tour in Austin with Professional Guide</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 401</t>
+          <t>TotalReviews: 31</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P2</t>
+          <t>PRODUCTCODE: 134057P2</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the hidden gems of Austin, TX during your morning walk. Our nationally acclaimed storyteller will be your guide as you see iconic sights and hear the history of downtown Austin.</t>
+          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Austin Small Group Morning Walk</t>
+          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 359</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P3</t>
+          <t>PRODUCTCODE: 51066P5</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: This tour is our longest at 1 hour 45 minutes and covers 2 miles of historic Austin including West 6th street, Guy Town, the Warehouse District and a drink stop at the iconic Driskill Hotel. Voted by the Austin Chronicle 2022 Critic's Choice "Best Nightlife Activity."</t>
+          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin Murder Walk </t>
+          <t>Title: Food Is My Best Friend Tour in Austin</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 252</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P11</t>
+          <t>PRODUCTCODE: 7635P1</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation offers its 1.5 hour Austin Sightseeing and Capitol Segway Tour three times daily. Highlights of the tour include the Texas State Capitol Building and Congress Avenue.</t>
+          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Austin Sightseeing and Capitol Segway Tour</t>
+          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 216</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350454P2</t>
+          <t>PRODUCTCODE: 134057P4</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Austin's rich heritage, thriving arts scene, and culinary delights. Our tours and our tour guide, Rooster, has 100% 5 star reviews on Tripadvisor, Google and Airbnb.</t>
+          <t>Summarized description: Our guides know where the best spots are and you will get to see a lot of Austin along the way. Let the guide know if there is a place you might have heard of and is on your bucket list to go to.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Austin Good Vibes E-Bike Tours with Rooster</t>
+          <t xml:space="preserve">Title: Austin E-Bike Brunch Tour </t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 195</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 309417P3</t>
+          <t>PRODUCTCODE: 87115P53</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: The Austin Haunted Pub Crawl is a 21+ tour that takes a deep dive into the city during the Old West days. The tour goes from bar to bar to look at some of the weird and unusual history and death the city offers. Please keep in mind that Austin is not an open-container city.</t>
+          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Austin Haunted Pub Crawl Walking Tour</t>
+          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 160</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P12</t>
+          <t>PRODUCTCODE: 53526P6</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation offers its 2.5 hour Ghost and Bat Segway tour once daily. Bats are seasonal and usually fly from March to October every year. We visit some of Austin's haunted downtown hotels and buildings.</t>
+          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Austin Famous Ghost and Bat Segway Tour</t>
+          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 142</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16592P2</t>
+          <t>PRODUCTCODE: 157133P12</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Our flagship tour covers a bit of everything about downtown Austin. Pedal through historic districts and dive into the art and history of Texas’ capital city. Enjoy highlights such as: Lady bird lake, Texas State Capitol, the Congress Bridge.</t>
+          <t>Summarized description: Learn about the diverse and creative community of Austin’s East Side. Sample a variety of delicious food from local establishments serving farm-to-table fare. Visit the Texas State Cemetery, home to the graves of Stephan F. Austin, “American Sniper” Chris Kyle, and more.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Austin Icons Bicycle Tour</t>
+          <t>Title: East Austin Food Tour</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16592P6</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has long held a reputation for being a city of innovative creators. You'll learn some history, see some beautiful work, and have a great time riding your bike. Highlights include: the tallest mural in Austin, historic West Austin buildings, the OBEY Giantess, and the Texas capitol building.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Austin Art and Architecture Bicycle Tour</t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 73</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P6</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Weird Austin City Tour</t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 56</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P4</t>
+          <t>PRODUCTCODE: 51066P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: The Brew Bus is Austin’s only concert on wheels. Our Twisted bus features a local band riding on board, providing the jams for a good time. At each of the breweries, we will serve up local craft brews.</t>
+          <t>Summarized description: Take an open-air electric shuttle from your hotel/accommodation to the Austin Visitor's Center. During this 3-hour tour, you will stop at three of the best bistros in Austin.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: The Brew Bus: Austin Brewery Tour with Live Band</t>
+          <t>Title: Austin Beer and Brewery Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 56</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P10</t>
+          <t>PRODUCTCODE: 212799P1</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation's 2 hour Historic Downtown Austin Segway tour is offered once daily. Tour explores many of Austin’s historic landmarks, brilliant modern skyscrapers, the Texas state capitol building, and other historic and interesting buildings throughout downtown.</t>
+          <t>Summarized description: Downtown Austin is a diverse city with rich history and culture. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more about Austin.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Historic Segway Tour</t>
+          <t>Title: Tipster Downtown Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 441526P2</t>
+          <t>PRODUCTCODE: 387557P3</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
+          <t>Summarized description: Walk through the seedy underbelly of Austin's red light district. The ladies of the night were tough, resourceful women, surviving in a man's world. As the city grew, so did our scandal.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
+          <t>Title: Scandal &amp; Vice in Austin: Historical Walking Tour Downtown</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P8</t>
+          <t>PRODUCTCODE: 380918P4</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: This brunch experience is perfect for locals (tours aren't just for tourists!), adult birthdays, bach parties, and anyone looking to mix up their weekend routine. Hear entertaining stories of local businesses, weird characters, and humorous history.</t>
+          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Small-Group Boozy Brunch Tour in Austin</t>
+          <t>Title: South Austin Food Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 33</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P5</t>
+          <t>PRODUCTCODE: 218169P3</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: This three-hour tour visits four of Austin’s awesome pubs. Drinks are not included in your ticket purchase. Each stop has various specials exclusive to the Pub Walk Austin tour.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Small Group Pub Walk Tour in Austin with Professional Guide</t>
+          <t>Title: Group BBQ Food Tour</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P16</t>
+          <t>PRODUCTCODE: 317335P1</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Nation Tour’s famous Capital City E-Scooter Tour begins on the West side of Austin. After cruising through downtown, your E- scooter adventure arrives at Lady Bird Lake.</t>
+          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: E-Scooter Tour of Austin</t>
+          <t>Title: Taste of Austin Food Tour by Pedicab</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P2</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P17</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Austin's official breakfast is the breakfast taco. Taste-testing your way through inventive tacos and to-die-for queso is a must. Cruise between locations in a comfortable air-conditioned Mercedes Sprinter van.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Austin Breakfast Taco Tour</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P5</t>
+          <t>PRODUCTCODE: 24380P1625</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
+          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Food Is My Best Friend Tour in Austin</t>
+          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7635P1</t>
+          <t>PRODUCTCODE: 6462P25</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
+          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
+          <t>Title: Historical Segway Food Tour in Austin</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P1</t>
+          <t>PRODUCTCODE: 75909P270</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: See the heart of Austin through a locals eyes on some of the finest urban bike trails in the country. Stop at some of Austin’s most famous landmarks: Barton Springs, the Stevie Ray Vaughan Statue, the Congress Avenue “Bat Bridge,” and more.</t>
+          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Austin E-Bike Tour</t>
+          <t>Title: Austin Beer and Food Tour by Bike</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P53</t>
+          <t>PRODUCTCODE: 212799P8</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
+          <t>Summarized description: The craft beer movement is thriving in Austin. The Austin area has over 65 craft breweries and is growing by the day. We'll visit three of Austin’s best east side breweries to taste a wide variety of local beers.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
+          <t>Title: Tipster East Austin Breweries Private Walking Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 421026P1</t>
+          <t>PRODUCTCODE: 209615P221</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Kasama Tastings is a women-owned and operated company based in Austin, TX. We host custom private tastings in-person and virtually for groups up to 15 people. Each guest can select their own type of tasting.</t>
+          <t>Summarized description: Walk through Austin’s rich history, stunning architecture, and vibrant cultural scene. Stroll down historic avenues, marvel at architectural wonders, and immerse yourself in the local culture.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Private Wine Tasting Experience in Austin</t>
+          <t>Title: Austin Explorer: A Vibrant USA Heritage Walk</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P6</t>
+          <t>PRODUCTCODE: 101382P1</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: Discover the stories hiding just out of reach of thousands of visitors and residents. Explore the human events that have shaped and continue to shape this unique Austin-area community. Enjoy connections to Georgetown, Texas even many locals overlook.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
+          <t>Title: Historic Downtown Walking Tour in Austin</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P6</t>
+          <t>PRODUCTCODE: 75909P281</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
+          <t>Summarized description: EatWith is the world’s leading community for authentic food experiences with locals. Through dinner parties, supper clubs, cooking classes, and food tours in private homes and special venues, EatWith connects hand-selected local hosts with travelers seeking unique, immersive food experiences.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
+          <t>Title: Historic Food Tour of Texas BBQ Culture</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cooking Classes']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 200006P361</t>
+          <t>PRODUCTCODE: 75909P280</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: We are an Austin, TX-based global custom event design company offering scavenger hunts and other events in 300+ cities in North America and beyond. Our very unique, immersive adventures are the only ones of their kind. We provide your very own remote, interactive, live host to assist and encourage you through your phone.</t>
+          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Alternate Reality Scavenger Hunt in Austin</t>
+          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157133P12</t>
+          <t>PRODUCTCODE: 311647P13</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the diverse and creative community of Austin’s East Side. Sample a variety of delicious food from local establishments serving farm-to-table fare. Visit the Texas State Cemetery, home to the graves of Stephan F. Austin, “American Sniper” Chris Kyle, and more.</t>
+          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: East Austin Food Tour</t>
+          <t>Title:  A Feast of the Weird Walking Tour in Austin *Single tickets</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 54414P97</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: Discover some of Austins most famous food trucks while enjoying an AR tour. Take a tour of some of the world's best known food trucks at Austins food truck experience.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Local Foods Extravaganza</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 218169P5</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: BBQ Food Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P2</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17179,2631 +17179,6 @@
       <c r="H1112" t="inlineStr"/>
       <c r="I1112" t="inlineStr"/>
     </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr"/>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr"/>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr"/>
-      <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr"/>
-      <c r="I1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>Title: Austin Street Art Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr"/>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr"/>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr"/>
-      <c r="I1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr"/>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr"/>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr"/>
-      <c r="I1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr"/>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr"/>
-      <c r="E1116" t="inlineStr"/>
-      <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr"/>
-      <c r="I1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P35</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr"/>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr"/>
-      <c r="I1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour guides are friendly and fun, the best in Austin. We talk about the history and growth of the city. We love teaching people how to ride Segways!</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr"/>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr"/>
-      <c r="H1118" t="inlineStr"/>
-      <c r="I1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>Title: Keep Austin Weird Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr"/>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr"/>
-      <c r="I1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-      <c r="H1120" t="inlineStr"/>
-      <c r="I1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr"/>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr"/>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr"/>
-      <c r="H1121" t="inlineStr"/>
-      <c r="I1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P7</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr"/>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr"/>
-      <c r="H1122" t="inlineStr"/>
-      <c r="I1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Summarized description:  Segway tour will include a bit of historical information about Austin. Includes a focus on the State Capitol of Texas, 6th Street, Congress Avenue, and much more.</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr"/>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr"/>
-      <c r="I1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>Title: Austin Early Bird Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr"/>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr"/>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr"/>
-      <c r="I1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
-      <c r="I1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr"/>
-      <c r="I1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 13625P8</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
-      <c r="I1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>Summarized description: 11 miles on Lady Bird Lake hike-n-bike trail / downtown Austin bikeway. Includes cycling around Barton Springs, Pfluger bike bridge, SRV statue, Congress Ave. Bat bridge.</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr"/>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr"/>
-      <c r="G1128" t="inlineStr"/>
-      <c r="H1128" t="inlineStr"/>
-      <c r="I1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>Title: Bikes and BBQ Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr"/>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr"/>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr"/>
-      <c r="I1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
-      <c r="I1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr"/>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr"/>
-      <c r="H1131" t="inlineStr"/>
-      <c r="I1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 104585P1</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr"/>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr"/>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr"/>
-      <c r="H1132" t="inlineStr"/>
-      <c r="I1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr"/>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr"/>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
-      <c r="H1133" t="inlineStr"/>
-      <c r="I1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr"/>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr"/>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr"/>
-      <c r="I1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr"/>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr"/>
-      <c r="I1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr"/>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr"/>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr"/>
-      <c r="I1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 380918P4</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr"/>
-      <c r="I1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr"/>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr"/>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr"/>
-      <c r="I1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>Title: South Austin Food Tour</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
-      <c r="I1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr"/>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
-      <c r="H1140" t="inlineStr"/>
-      <c r="I1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr"/>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
-      <c r="H1141" t="inlineStr"/>
-      <c r="I1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 380918P2</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr"/>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
-      <c r="H1142" t="inlineStr"/>
-      <c r="I1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore Austin on an easy-to-operate e-bike on this city overview tour. Your guide will take about five breaks at unique locations for a quick photo. Pass by over 20 points of interest as you learn fun stories about the city.</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr"/>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr"/>
-      <c r="I1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>Title: Best of Austin Ebike Tour</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr"/>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr"/>
-      <c r="I1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr"/>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr"/>
-      <c r="I1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr"/>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr"/>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
-      <c r="H1146" t="inlineStr"/>
-      <c r="I1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5682AUSCITY</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr"/>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
-      <c r="H1147" t="inlineStr"/>
-      <c r="I1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr"/>
-      <c r="I1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>Title: Austin Sightseeing Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
-      <c r="I1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-      <c r="I1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
-      <c r="I1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 212799P7</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
-      <c r="I1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about the rich culture of artists in Austin. See graffiti, murals, and even more creative mediums. Stop for a local treat along the way.</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
-      <c r="H1153" t="inlineStr"/>
-      <c r="I1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Tipster East Austin Street Art Private Walking Tour </t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr"/>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
-      <c r="H1154" t="inlineStr"/>
-      <c r="I1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr"/>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
-      <c r="H1155" t="inlineStr"/>
-      <c r="I1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr"/>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr"/>
-      <c r="H1156" t="inlineStr"/>
-      <c r="I1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 10428P18</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr"/>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
-      <c r="H1157" t="inlineStr"/>
-      <c r="I1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>Summarized description: Get great shots in front of iconic Austin sites like the Capitol building, Greetings From Austin postcard mural, and more. Use our fun photos props to add a little extra flair to your shots.</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr"/>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
-      <c r="H1158" t="inlineStr"/>
-      <c r="I1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>Title: Austin Street Art Photo Tour with Local Guide</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr"/>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr"/>
-      <c r="H1159" t="inlineStr"/>
-      <c r="I1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr"/>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
-      <c r="H1160" t="inlineStr"/>
-      <c r="I1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Category: ['Workshops and Classes']</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
-      <c r="I1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P8</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
-      <c r="I1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr"/>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr"/>
-      <c r="H1163" t="inlineStr"/>
-      <c r="I1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>Title: Ultimate Segway Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr"/>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
-      <c r="H1164" t="inlineStr"/>
-      <c r="I1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
-      <c r="I1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
-      <c r="H1166" t="inlineStr"/>
-      <c r="I1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 174788P1</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
-      <c r="H1167" t="inlineStr"/>
-      <c r="I1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>Summarized description: This is the first ever tour in Austin that educates consumers about the new Hemp CBD Trends, Businesses and Products. Each tour end will focus on Legislation, Wellness, or Food.</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr"/>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
-      <c r="H1168" t="inlineStr"/>
-      <c r="I1168" t="inlineStr"/>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>Title: Walking Hemp Tour - Downtown Austin</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr"/>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
-      <c r="H1169" t="inlineStr"/>
-      <c r="I1169" t="inlineStr"/>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr"/>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
-      <c r="H1170" t="inlineStr"/>
-      <c r="I1170" t="inlineStr"/>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Category: ['Workshops and Classes', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
-      <c r="I1171" t="inlineStr"/>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 49202P4</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
-      <c r="I1172" t="inlineStr"/>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about some of Austin's best bars, nightlife spots, hidden gems, and historical markers. Plus, have a chance to sample some ofAustin's finest brews along the route.</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-      <c r="H1173" t="inlineStr"/>
-      <c r="I1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>Title: Texas Beer 5k Running Tour in Downtown Austin</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
-      <c r="I1174" t="inlineStr"/>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
-      <c r="I1175" t="inlineStr"/>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr"/>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
-      <c r="H1176" t="inlineStr"/>
-      <c r="I1176" t="inlineStr"/>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 19328P10</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr"/>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
-      <c r="H1177" t="inlineStr"/>
-      <c r="I1177" t="inlineStr"/>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>Summarized description: Dive into Austin’s scandalous past with this after dark cocktail crawl through the historic downtown district. Your entertaining local Twisted Texas party captain will spin up sordid tales and crazy concoctions. Snap cool photos of street art, historic buildings, and modern skyscrapers by streetlight.</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
-      <c r="H1178" t="inlineStr"/>
-      <c r="I1178" t="inlineStr"/>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Austin Cocktail Crawl Night Tour </t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
-      <c r="H1179" t="inlineStr"/>
-      <c r="I1179" t="inlineStr"/>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr"/>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr"/>
-      <c r="H1180" t="inlineStr"/>
-      <c r="I1180" t="inlineStr"/>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr"/>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
-      <c r="H1181" t="inlineStr"/>
-      <c r="I1181" t="inlineStr"/>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 143641P337</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
-      <c r="I1182" t="inlineStr"/>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Summarized description: Wacky Walks of Austin is a great way to see your city! You'll use an app on your phone to play our royal-themed scavenger hunt. During the game, you will be competing against your group members for the title of King or Queen.</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-      <c r="H1183" t="inlineStr"/>
-      <c r="I1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>Title: Scavenger Hunt Adventure in Austin by Wacky Walks</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr"/>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
-      <c r="H1184" t="inlineStr"/>
-      <c r="I1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr"/>
-      <c r="I1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr"/>
-      <c r="I1186" t="inlineStr"/>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 19103P1</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr"/>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr"/>
-      <c r="I1187" t="inlineStr"/>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Title: Austin Haunted Legends Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr"/>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr"/>
-      <c r="I1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P4</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr"/>
-      <c r="I1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr"/>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr"/>
-      <c r="I1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>Title: Historic Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
-      <c r="H1195" t="inlineStr"/>
-      <c r="I1195" t="inlineStr"/>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
-      <c r="I1196" t="inlineStr"/>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90519P12</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
-      <c r="I1197" t="inlineStr"/>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr"/>
-      <c r="I1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>Title: Austin East Side Brewery Tour</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr"/>
-      <c r="I1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-      <c r="I1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr"/>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr"/>
-      <c r="I1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 317335P1</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr"/>
-      <c r="I1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Title: Taste of Austin Food Tour by Pedicab</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
-      <c r="I1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
-      <c r="I1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-      <c r="I1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 212799P4</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr"/>
-      <c r="I1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Summarized description: Get ready to be spooked as we dive into Austin's dark and sinister side. We'll fact-check all the most famous local ghost stories and urban legends. Hear true-crime tales of terror, trysts, and deceit. Not for the faint of heart!</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr"/>
-      <c r="I1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>Title: Tipster Haunts &amp; Horrors of Austin Private Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr"/>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr"/>
-      <c r="I1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr"/>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr"/>
-      <c r="I1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr"/>
-      <c r="I1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 180366P2</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
-      <c r="I1212" t="inlineStr"/>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin, Texas, prides itself on its weirdness. On this tour, you'll encounter the weird of the paranormal sort. Along the way, you can sample spirits of the drinking kind. Alcohol is not included in the price of the tour.</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr"/>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr"/>
-      <c r="I1213" t="inlineStr"/>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Title: Austin Boos and Booze Haunted Pub Crawl</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr"/>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr"/>
-      <c r="I1214" t="inlineStr"/>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr"/>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr"/>
-      <c r="I1215" t="inlineStr"/>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr"/>
-      <c r="I1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 356901P1</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr"/>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr"/>
-      <c r="I1217" t="inlineStr"/>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr"/>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr"/>
-      <c r="I1218" t="inlineStr"/>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr"/>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr"/>
-      <c r="I1219" t="inlineStr"/>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr"/>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr"/>
-      <c r="I1220" t="inlineStr"/>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr"/>
-      <c r="I1221" t="inlineStr"/>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 133277P4</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr"/>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr"/>
-      <c r="I1222" t="inlineStr"/>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin's pathways and trails present the perfect opportunity to cruise and soak in the culture. Navigating the city on our electric bikes, you get to see things you would normally drive past.</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr"/>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr"/>
-      <c r="I1223" t="inlineStr"/>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>Title: See, Eat, Ride - Austin Electric Bike Tour | MOD BIKES</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr"/>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr"/>
-      <c r="I1224" t="inlineStr"/>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr"/>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr"/>
-      <c r="I1225" t="inlineStr"/>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
-      <c r="I1226" t="inlineStr"/>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75909P279</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
-      <c r="I1227" t="inlineStr"/>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Summarized description: EatWith is the world’s leading community for authentic food experiences with locals, in 130+ countries. Through dinner parties, supper clubs, cooking classes, and food tours in private homes and special venues, EatWith connects hand-selected local hosts with travelers seeking unique, immersive food experiences.</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
-      <c r="I1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>Title: Austin City Landmarks and Taco Tour by Bike</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr"/>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
-      <c r="H1229" t="inlineStr"/>
-      <c r="I1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr"/>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr"/>
-      <c r="I1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Category: ['Cooking Classes', 'Dining Experiences', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-      <c r="I1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P25</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr"/>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
-      <c r="H1232" t="inlineStr"/>
-      <c r="I1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr"/>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr"/>
-      <c r="I1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>Title: Historical Segway Food Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr"/>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr"/>
-      <c r="I1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr"/>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr"/>
-      <c r="I1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr"/>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr"/>
-      <c r="I1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75909P270</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr"/>
-      <c r="I1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr"/>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
-      <c r="H1238" t="inlineStr"/>
-      <c r="I1238" t="inlineStr"/>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>Title: Austin Beer and Food Tour by Bike</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr"/>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr"/>
-      <c r="I1239" t="inlineStr"/>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr"/>
-      <c r="I1240" t="inlineStr"/>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr"/>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr"/>
-      <c r="I1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 199613P5</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr"/>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr"/>
-      <c r="I1242" t="inlineStr"/>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr"/>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr"/>
-      <c r="I1243" t="inlineStr"/>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr"/>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr"/>
-      <c r="I1244" t="inlineStr"/>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr"/>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
-      <c r="H1245" t="inlineStr"/>
-      <c r="I1245" t="inlineStr"/>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr"/>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr"/>
-      <c r="I1246" t="inlineStr"/>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 101382P1</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr"/>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr"/>
-      <c r="I1247" t="inlineStr"/>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the stories hiding just out of reach of thousands of visitors and residents. Explore the human events that have shaped and continue to shape this unique Austin-area community. Enjoy connections to Georgetown, Texas even many locals overlook.</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr"/>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr"/>
-      <c r="I1248" t="inlineStr"/>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Title: Historic Downtown Walking Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr"/>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr"/>
-      <c r="I1249" t="inlineStr"/>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr"/>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr"/>
-      <c r="I1250" t="inlineStr"/>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr"/>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr"/>
-      <c r="I1251" t="inlineStr"/>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75909P281</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr"/>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr"/>
-      <c r="I1252" t="inlineStr"/>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>Summarized description: EatWith is the world’s leading community for authentic food experiences with locals. Through dinner parties, supper clubs, cooking classes, and food tours in private homes and special venues, EatWith connects hand-selected local hosts with travelers seeking unique, immersive food experiences.</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr"/>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr"/>
-      <c r="I1253" t="inlineStr"/>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Title: Historic Food Tour of Texas BBQ Culture</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-      <c r="H1254" t="inlineStr"/>
-      <c r="I1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr"/>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr"/>
-      <c r="H1255" t="inlineStr"/>
-      <c r="I1255" t="inlineStr"/>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>Category: ['Cooking Classes', 'Dining Experiences', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr"/>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
-      <c r="H1256" t="inlineStr"/>
-      <c r="I1256" t="inlineStr"/>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P3</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr"/>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-      <c r="H1257" t="inlineStr"/>
-      <c r="I1257" t="inlineStr"/>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr"/>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr"/>
-      <c r="H1258" t="inlineStr"/>
-      <c r="I1258" t="inlineStr"/>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>Title: Segway Dinner Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr"/>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr"/>
-      <c r="I1259" t="inlineStr"/>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr"/>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
-      <c r="H1260" t="inlineStr"/>
-      <c r="I1260" t="inlineStr"/>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr"/>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr"/>
-      <c r="I1261" t="inlineStr"/>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75909P280</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
-      <c r="I1262" t="inlineStr"/>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr"/>
-      <c r="I1263" t="inlineStr"/>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr"/>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr"/>
-      <c r="I1264" t="inlineStr"/>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr"/>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr"/>
-      <c r="I1265" t="inlineStr"/>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr"/>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr"/>
-      <c r="I1266" t="inlineStr"/>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 214718P2</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr"/>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr"/>
-      <c r="I1267" t="inlineStr"/>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr"/>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr"/>
-      <c r="I1268" t="inlineStr"/>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr"/>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr"/>
-      <c r="I1269" t="inlineStr"/>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr"/>
-      <c r="I1270" t="inlineStr"/>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr"/>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr"/>
-      <c r="I1271" t="inlineStr"/>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 369084P1</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr"/>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr"/>
-      <c r="I1272" t="inlineStr"/>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>Summarized description: This tour is perfect for girlfriends, bachelorettes, and bachelors who love to shop, have some drinks, and get awesome discounts. You will walk your way down Austin's South Congress shopping district on a 2+ hour guided walking tour. You'll get complimentary wine/cocktails throughout the tour and exclusive discounts 10-15% off.</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr"/>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr"/>
-      <c r="I1273" t="inlineStr"/>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>Title:  South Congress Austin Shopping Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr"/>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr"/>
-      <c r="I1274" t="inlineStr"/>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr"/>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr"/>
-      <c r="I1275" t="inlineStr"/>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>Category: ['Shopping and Fashion']</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr"/>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr"/>
-      <c r="I1276" t="inlineStr"/>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 251722P1</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr"/>
-      <c r="I1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore some of Texas' most popular wineries and learn about the wine making process. Taste the flavors of Texas at the Austin's most famous BBQ joint. Enjoy at least 45 minutes at each stop.</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr"/>
-      <c r="I1278" t="inlineStr"/>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>Title:  Salt Lick BBQ and Winery Shuttle Tour</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr"/>
-      <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr"/>
-      <c r="I1279" t="inlineStr"/>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr"/>
-      <c r="I1280" t="inlineStr"/>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr"/>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr"/>
-      <c r="I1281" t="inlineStr"/>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 218169P5</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr"/>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr"/>
-      <c r="I1282" t="inlineStr"/>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr"/>
-      <c r="I1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>Title: BBQ Food Tour</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
-      <c r="I1284" t="inlineStr"/>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr"/>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr"/>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr"/>
-      <c r="I1285" t="inlineStr"/>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr"/>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr"/>
-      <c r="I1286" t="inlineStr"/>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
-      <c r="I1287" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/7812P106.xlsx
+++ b/experiment_results/7812P106.xlsx
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cooking Classes']</t>
+          <t>Category: ['Cooking Classes', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cooking Classes']</t>
+          <t>Category: ['Cooking Classes', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P5</t>
+          <t>PRODUCTCODE: 134057P2</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: This three-hour tour visits four of Austin’s awesome pubs. Drinks are not included in your ticket purchase. Each stop has various specials exclusive to the Pub Walk Austin tour.</t>
+          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Small Group Pub Walk Tour in Austin with Professional Guide</t>
+          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P2</t>
+          <t>PRODUCTCODE: 51066P5</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
+          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
+          <t>Title: Food Is My Best Friend Tour in Austin</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P5</t>
+          <t>PRODUCTCODE: 134057P4</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
+          <t>Summarized description: Our guides know where the best spots are and you will get to see a lot of Austin along the way. Let the guide know if there is a place you might have heard of and is on your bucket list to go to.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Food Is My Best Friend Tour in Austin</t>
+          <t xml:space="preserve">Title: Austin E-Bike Brunch Tour </t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7635P1</t>
+          <t>PRODUCTCODE: 87115P53</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
+          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
+          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P4</t>
+          <t>PRODUCTCODE: 53526P6</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides know where the best spots are and you will get to see a lot of Austin along the way. Let the guide know if there is a place you might have heard of and is on your bucket list to go to.</t>
+          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Brunch Tour </t>
+          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P53</t>
+          <t>PRODUCTCODE: 157133P12</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
+          <t>Summarized description: Learn about the diverse and creative community of Austin’s East Side. Sample a variety of delicious food from local establishments serving farm-to-table fare. Visit the Texas State Cemetery, home to the graves of Stephan F. Austin, “American Sniper” Chris Kyle, and more.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
+          <t>Title: East Austin Food Tour</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P6</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157133P12</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the diverse and creative community of Austin’s East Side. Sample a variety of delicious food from local establishments serving farm-to-table fare. Visit the Texas State Cemetery, home to the graves of Stephan F. Austin, “American Sniper” Chris Kyle, and more.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: East Austin Food Tour</t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 328824P1</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: The Lost Legends of Texas Pub Crawl is for ages 21+ and features some of the most incredible true stories and lesser-known aspects of the founding of Texas. This tour explores the period from the earliest recorded expeditions to Texas to its statehood within the United States.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Lost Legends of Texas Pub Crawl in Austin</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 51066P1</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Take an open-air electric shuttle from your hotel/accommodation to the Austin Visitor's Center. During this 3-hour tour, you will stop at three of the best bistros in Austin.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: Austin Beer and Brewery Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P1</t>
+          <t>PRODUCTCODE: 13625P8</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Take an open-air electric shuttle from your hotel/accommodation to the Austin Visitor's Center. During this 3-hour tour, you will stop at three of the best bistros in Austin.</t>
+          <t>Summarized description: 11 miles on Lady Bird Lake hike-n-bike trail / downtown Austin bikeway. Includes cycling around Barton Springs, Pfluger bike bridge, SRV statue, Congress Ave. Bat bridge.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Austin Beer and Brewery Tour</t>
+          <t>Title: Bikes and BBQ Tour in Austin</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P1</t>
+          <t>PRODUCTCODE: 104585P1</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Downtown Austin is a diverse city with rich history and culture. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more about Austin.</t>
+          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Tipster Downtown Austin Private Walking Tour</t>
+          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387557P3</t>
+          <t>PRODUCTCODE: 380918P4</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through the seedy underbelly of Austin's red light district. The ladies of the night were tough, resourceful women, surviving in a man's world. As the city grew, so did our scandal.</t>
+          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Scandal &amp; Vice in Austin: Historical Walking Tour Downtown</t>
+          <t>Title: South Austin Food Tour</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P4</t>
+          <t>PRODUCTCODE: 218169P3</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: South Austin Food Tour</t>
+          <t>Title: Group BBQ Food Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218169P3</t>
+          <t>PRODUCTCODE: 317335P1</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
+          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Group BBQ Food Tour</t>
+          <t>Title: Taste of Austin Food Tour by Pedicab</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 317335P1</t>
+          <t>PRODUCTCODE: 212799P4</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
+          <t>Summarized description: Get ready to be spooked as we dive into Austin's dark and sinister side. We'll fact-check all the most famous local ghost stories and urban legends. Hear true-crime tales of terror, trysts, and deceit. Not for the faint of heart!</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Taste of Austin Food Tour by Pedicab</t>
+          <t>Title: Tipster Haunts &amp; Horrors of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences', 'Cooking Classes']</t>
+          <t>Category: ['Cooking Classes', 'Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>

--- a/experiment_results/7812P106.xlsx
+++ b/experiment_results/7812P106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Water Sports']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals', 'City Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Cooking Classes', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Cooking Classes', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cooking Classes', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Cooking Classes', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 441526P2</t>
+          <t>PRODUCTCODE: 19328P6</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
+          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
+          <t>Title: Weird Austin City Tour</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 56</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P8</t>
+          <t>PRODUCTCODE: 441526P2</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: This brunch experience is perfect for locals (tours aren't just for tourists!), adult birthdays, bach parties, and anyone looking to mix up their weekend routine. Hear entertaining stories of local businesses, weird characters, and humorous history.</t>
+          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Small-Group Boozy Brunch Tour in Austin</t>
+          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 33</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P2</t>
+          <t>PRODUCTCODE: 19328P8</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
+          <t>Summarized description: This brunch experience is perfect for locals (tours aren't just for tourists!), adult birthdays, bach parties, and anyone looking to mix up their weekend routine. Hear entertaining stories of local businesses, weird characters, and humorous history.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
+          <t>Title: Small-Group Boozy Brunch Tour in Austin</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P5</t>
+          <t>PRODUCTCODE: 134057P2</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
+          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Food Is My Best Friend Tour in Austin</t>
+          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P4</t>
+          <t>PRODUCTCODE: 10428P17</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides know where the best spots are and you will get to see a lot of Austin along the way. Let the guide know if there is a place you might have heard of and is on your bucket list to go to.</t>
+          <t>Summarized description: Austin's official breakfast is the breakfast taco. Taste-testing your way through inventive tacos and to-die-for queso is a must. Cruise between locations in a comfortable air-conditioned Mercedes Sprinter van.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Brunch Tour </t>
+          <t>Title: Austin Breakfast Taco Tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P53</t>
+          <t>PRODUCTCODE: 51066P5</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
+          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
+          <t>Title: Food Is My Best Friend Tour in Austin</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P6</t>
+          <t>PRODUCTCODE: 7635P1</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
+          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
+          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157133P12</t>
+          <t>PRODUCTCODE: 87115P53</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the diverse and creative community of Austin’s East Side. Sample a variety of delicious food from local establishments serving farm-to-table fare. Visit the Texas State Cemetery, home to the graves of Stephan F. Austin, “American Sniper” Chris Kyle, and more.</t>
+          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: East Austin Food Tour</t>
+          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 51066P9</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Brew and Que Tour in Austin</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 10428P7</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: The AustiNight small-group, limited to a maximum of 7 travelers, 3-hour guided evening tour. Stop at a locally renowned food truck for some mouthwatering Texas BBQ meats.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: AustiNight Small-Group Guided Tour with Dinner in Austin</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328824P1</t>
+          <t>PRODUCTCODE: 53526P6</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: The Lost Legends of Texas Pub Crawl is for ages 21+ and features some of the most incredible true stories and lesser-known aspects of the founding of Texas. This tour explores the period from the earliest recorded expeditions to Texas to its statehood within the United States.</t>
+          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Lost Legends of Texas Pub Crawl in Austin</t>
+          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P1</t>
+          <t>PRODUCTCODE: 157133P12</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Take an open-air electric shuttle from your hotel/accommodation to the Austin Visitor's Center. During this 3-hour tour, you will stop at three of the best bistros in Austin.</t>
+          <t>Summarized description: Learn about the diverse and creative community of Austin’s East Side. Sample a variety of delicious food from local establishments serving farm-to-table fare. Visit the Texas State Cemetery, home to the graves of Stephan F. Austin, “American Sniper” Chris Kyle, and more.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Austin Beer and Brewery Tour</t>
+          <t>Title: East Austin Food Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13625P8</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: 11 miles on Lady Bird Lake hike-n-bike trail / downtown Austin bikeway. Includes cycling around Barton Springs, Pfluger bike bridge, SRV statue, Congress Ave. Bat bridge.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Bikes and BBQ Tour in Austin</t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104585P1</t>
+          <t>PRODUCTCODE: 10428P22</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
+          <t>Summarized description: The BBQ and Brew Shuttle takes you to one of Austin's best-kept secrets. Indulge in mouthwatering BBQ and sample a variety of handcrafted brews. The 4-hour shuttle experience is priced at $60 per person.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
+          <t xml:space="preserve">Title: Austin BBQ and Brew Shuttle </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P4</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: South Austin Food Tour</t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218169P3</t>
+          <t>PRODUCTCODE: 199613P3</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Group BBQ Food Tour</t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 317335P1</t>
+          <t>PRODUCTCODE: 51066P1</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
+          <t>Summarized description: Take an open-air electric shuttle from your hotel/accommodation to the Austin Visitor's Center. During this 3-hour tour, you will stop at three of the best bistros in Austin.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Taste of Austin Food Tour by Pedicab</t>
+          <t>Title: Austin Beer and Brewery Tour</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P4</t>
+          <t>PRODUCTCODE: 13625P8</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Get ready to be spooked as we dive into Austin's dark and sinister side. We'll fact-check all the most famous local ghost stories and urban legends. Hear true-crime tales of terror, trysts, and deceit. Not for the faint of heart!</t>
+          <t>Summarized description: 11 miles on Lady Bird Lake hike-n-bike trail / downtown Austin bikeway. Includes cycling around Barton Springs, Pfluger bike bridge, SRV statue, Congress Ave. Bat bridge.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Tipster Haunts &amp; Horrors of Austin Private Walking Tour</t>
+          <t>Title: Bikes and BBQ Tour in Austin</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1626</t>
+          <t>PRODUCTCODE: 104585P1</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 356901P1</t>
+          <t>PRODUCTCODE: 380918P4</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
+          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
+          <t>Title: South Austin Food Tour</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1625</t>
+          <t>PRODUCTCODE: 218169P3</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
+          <t>Title: Group BBQ Food Tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P25</t>
+          <t>PRODUCTCODE: 317335P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
+          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Historical Segway Food Tour in Austin</t>
+          <t>Title: Taste of Austin Food Tour by Pedicab</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P270</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Austin Beer and Food Tour by Bike</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P8</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: The craft beer movement is thriving in Austin. The Austin area has over 65 craft breweries and is growing by the day. We'll visit three of Austin’s best east side breweries to taste a wide variety of local beers.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Tipster East Austin Breweries Private Walking Tour</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 209615P221</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through Austin’s rich history, stunning architecture, and vibrant cultural scene. Stroll down historic avenues, marvel at architectural wonders, and immerse yourself in the local culture.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Austin Explorer: A Vibrant USA Heritage Walk</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101382P1</t>
+          <t>PRODUCTCODE: 24380P1625</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the stories hiding just out of reach of thousands of visitors and residents. Explore the human events that have shaped and continue to shape this unique Austin-area community. Enjoy connections to Georgetown, Texas even many locals overlook.</t>
+          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Historic Downtown Walking Tour in Austin</t>
+          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P281</t>
+          <t>PRODUCTCODE: 6462P25</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: EatWith is the world’s leading community for authentic food experiences with locals. Through dinner parties, supper clubs, cooking classes, and food tours in private homes and special venues, EatWith connects hand-selected local hosts with travelers seeking unique, immersive food experiences.</t>
+          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Historic Food Tour of Texas BBQ Culture</t>
+          <t>Title: Historical Segway Food Tour in Austin</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Cooking Classes', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P280</t>
+          <t>PRODUCTCODE: 75909P270</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
+          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
+          <t>Title: Austin Beer and Food Tour by Bike</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 311647P13</t>
+          <t>PRODUCTCODE: 212799P8</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
+          <t>Summarized description: The craft beer movement is thriving in Austin. The Austin area has over 65 craft breweries and is growing by the day. We'll visit three of Austin’s best east side breweries to taste a wide variety of local beers.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title:  A Feast of the Weird Walking Tour in Austin *Single tickets</t>
+          <t>Title: Tipster East Austin Breweries Private Walking Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 54414P97</t>
+          <t>PRODUCTCODE: 199613P5</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Discover some of Austins most famous food trucks while enjoying an AR tour. Take a tour of some of the world's best known food trucks at Austins food truck experience.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Local Foods Extravaganza</t>
+          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218169P5</t>
+          <t>PRODUCTCODE: 218169P1</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints and their partners within Austin. You will learn a little bit about the history of BBQ and specifically how it got its start in Central Texas. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: BBQ Food Tour</t>
+          <t>Title: Private BBQ Tour for 1-3 people</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 10428P12</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17179,6 +17179,606 @@
       <c r="H1112" t="inlineStr"/>
       <c r="I1112" t="inlineStr"/>
     </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>Summarized description: This BBQ and Wine shuttle is great for solo travelers, couples, and small groups wanting to take a break from Austin for the best of the Hill Country.</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr"/>
+      <c r="C1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr"/>
+      <c r="E1113" t="inlineStr"/>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="inlineStr"/>
+      <c r="H1113" t="inlineStr"/>
+      <c r="I1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>Title: Austin's Salt Lick and Winery Shuttle - Group Option</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr"/>
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr"/>
+      <c r="E1114" t="inlineStr"/>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr"/>
+      <c r="H1114" t="inlineStr"/>
+      <c r="I1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr"/>
+      <c r="C1115" t="inlineStr"/>
+      <c r="D1115" t="inlineStr"/>
+      <c r="E1115" t="inlineStr"/>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="inlineStr"/>
+      <c r="H1115" t="inlineStr"/>
+      <c r="I1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr"/>
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="inlineStr"/>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="inlineStr"/>
+      <c r="H1116" t="inlineStr"/>
+      <c r="I1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 75909P281</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr"/>
+      <c r="C1117" t="inlineStr"/>
+      <c r="D1117" t="inlineStr"/>
+      <c r="E1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="inlineStr"/>
+      <c r="H1117" t="inlineStr"/>
+      <c r="I1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Summarized description: EatWith is the world’s leading community for authentic food experiences with locals. Through dinner parties, supper clubs, cooking classes, and food tours in private homes and special venues, EatWith connects hand-selected local hosts with travelers seeking unique, immersive food experiences.</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr"/>
+      <c r="E1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr"/>
+      <c r="H1118" t="inlineStr"/>
+      <c r="I1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>Title: Historic Food Tour of Texas BBQ Culture</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr"/>
+      <c r="E1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
+      <c r="H1119" t="inlineStr"/>
+      <c r="I1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr"/>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr"/>
+      <c r="E1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr"/>
+      <c r="H1120" t="inlineStr"/>
+      <c r="I1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Cooking Classes', 'Dining Experiences']</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr"/>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr"/>
+      <c r="E1121" t="inlineStr"/>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr"/>
+      <c r="H1121" t="inlineStr"/>
+      <c r="I1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 75909P280</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr"/>
+      <c r="H1122" t="inlineStr"/>
+      <c r="I1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr"/>
+      <c r="E1123" t="inlineStr"/>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr"/>
+      <c r="I1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="inlineStr"/>
+      <c r="H1124" t="inlineStr"/>
+      <c r="I1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr"/>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
+      <c r="I1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr"/>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr"/>
+      <c r="H1126" t="inlineStr"/>
+      <c r="I1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 454873P1</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
+      <c r="H1127" t="inlineStr"/>
+      <c r="I1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>Summarized description: The Brewery 5K Running Series includes a free beer and swag. The Bullock Texas State History Museum offers a self guided tour of the city's history. Terry Black's BBQ is one of Austin's most famous BBQ joints.</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr"/>
+      <c r="C1128" t="inlineStr"/>
+      <c r="D1128" t="inlineStr"/>
+      <c r="E1128" t="inlineStr"/>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="inlineStr"/>
+      <c r="H1128" t="inlineStr"/>
+      <c r="I1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Brewery 5K Fun Run, BBQ, and Texas History Museum in Austin </t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr"/>
+      <c r="C1129" t="inlineStr"/>
+      <c r="D1129" t="inlineStr"/>
+      <c r="E1129" t="inlineStr"/>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="inlineStr"/>
+      <c r="H1129" t="inlineStr"/>
+      <c r="I1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr"/>
+      <c r="C1130" t="inlineStr"/>
+      <c r="D1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr"/>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr"/>
+      <c r="H1130" t="inlineStr"/>
+      <c r="I1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr"/>
+      <c r="C1131" t="inlineStr"/>
+      <c r="D1131" t="inlineStr"/>
+      <c r="E1131" t="inlineStr"/>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="inlineStr"/>
+      <c r="H1131" t="inlineStr"/>
+      <c r="I1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 369084P1</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr"/>
+      <c r="C1132" t="inlineStr"/>
+      <c r="D1132" t="inlineStr"/>
+      <c r="E1132" t="inlineStr"/>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="inlineStr"/>
+      <c r="H1132" t="inlineStr"/>
+      <c r="I1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>Summarized description: This tour is perfect for girlfriends, bachelorettes, and bachelors who love to shop, have some drinks, and get awesome discounts. You will walk your way down Austin's South Congress shopping district on a 2+ hour guided walking tour. You'll get complimentary wine/cocktails throughout the tour and exclusive discounts 10-15% off.</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr"/>
+      <c r="C1133" t="inlineStr"/>
+      <c r="D1133" t="inlineStr"/>
+      <c r="E1133" t="inlineStr"/>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
+      <c r="H1133" t="inlineStr"/>
+      <c r="I1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>Title:  South Congress Austin Shopping Guided Tour</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr"/>
+      <c r="C1134" t="inlineStr"/>
+      <c r="D1134" t="inlineStr"/>
+      <c r="E1134" t="inlineStr"/>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
+      <c r="H1134" t="inlineStr"/>
+      <c r="I1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr"/>
+      <c r="C1135" t="inlineStr"/>
+      <c r="D1135" t="inlineStr"/>
+      <c r="E1135" t="inlineStr"/>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
+      <c r="H1135" t="inlineStr"/>
+      <c r="I1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>Category: ['Shopping and Fashion']</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr"/>
+      <c r="C1136" t="inlineStr"/>
+      <c r="D1136" t="inlineStr"/>
+      <c r="E1136" t="inlineStr"/>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
+      <c r="H1136" t="inlineStr"/>
+      <c r="I1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 311647P13</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr"/>
+      <c r="C1137" t="inlineStr"/>
+      <c r="D1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr"/>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
+      <c r="H1137" t="inlineStr"/>
+      <c r="I1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr"/>
+      <c r="C1138" t="inlineStr"/>
+      <c r="D1138" t="inlineStr"/>
+      <c r="E1138" t="inlineStr"/>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
+      <c r="H1138" t="inlineStr"/>
+      <c r="I1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>Title:  A Feast of the Weird Walking Tour in Austin *Single tickets</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
+      <c r="D1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr"/>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
+      <c r="H1139" t="inlineStr"/>
+      <c r="I1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
+      <c r="D1140" t="inlineStr"/>
+      <c r="E1140" t="inlineStr"/>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
+      <c r="I1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr"/>
+      <c r="C1141" t="inlineStr"/>
+      <c r="D1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr"/>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
+      <c r="H1141" t="inlineStr"/>
+      <c r="I1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 54414P97</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr"/>
+      <c r="C1142" t="inlineStr"/>
+      <c r="D1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr"/>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr"/>
+      <c r="H1142" t="inlineStr"/>
+      <c r="I1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover some of Austins most famous food trucks while enjoying an AR tour. Take a tour of some of the world's best known food trucks at Austins food truck experience.</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr"/>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
+      <c r="I1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Title: Local Foods Extravaganza</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr"/>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr"/>
+      <c r="H1144" t="inlineStr"/>
+      <c r="I1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr"/>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr"/>
+      <c r="H1145" t="inlineStr"/>
+      <c r="I1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr"/>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr"/>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr"/>
+      <c r="H1146" t="inlineStr"/>
+      <c r="I1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 218169P5</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
+      <c r="H1147" t="inlineStr"/>
+      <c r="I1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
+      <c r="H1148" t="inlineStr"/>
+      <c r="I1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>Title: BBQ Food Tour</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr"/>
+      <c r="I1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
+      <c r="I1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr"/>
+      <c r="I1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr"/>
+      <c r="I1152" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
